--- a/natmiOut/OldD7/LR-pairs_lrc2p/Mdk-Notch2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Mdk-Notch2.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.25267909965834</v>
+        <v>1.324023666666666</v>
       </c>
       <c r="H2">
-        <v>1.25267909965834</v>
+        <v>3.972071</v>
       </c>
       <c r="I2">
-        <v>0.01458991783974577</v>
+        <v>0.01518042398701374</v>
       </c>
       <c r="J2">
-        <v>0.01458991783974577</v>
+        <v>0.01518042398701374</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.68601823730102</v>
+        <v>2.993142333333334</v>
       </c>
       <c r="N2">
-        <v>2.68601823730102</v>
+        <v>8.979427000000001</v>
       </c>
       <c r="O2">
-        <v>0.03317837855250831</v>
+        <v>0.03484385887642424</v>
       </c>
       <c r="P2">
-        <v>0.03317837855250831</v>
+        <v>0.03484385887642424</v>
       </c>
       <c r="Q2">
-        <v>3.364718907168123</v>
+        <v>3.962991287035222</v>
       </c>
       <c r="R2">
-        <v>3.364718907168123</v>
+        <v>35.666921583317</v>
       </c>
       <c r="S2">
-        <v>0.0004840698171370794</v>
+        <v>0.0005289445510877921</v>
       </c>
       <c r="T2">
-        <v>0.0004840698171370794</v>
+        <v>0.0005289445510877922</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.25267909965834</v>
+        <v>1.324023666666666</v>
       </c>
       <c r="H3">
-        <v>1.25267909965834</v>
+        <v>3.972071</v>
       </c>
       <c r="I3">
-        <v>0.01458991783974577</v>
+        <v>0.01518042398701374</v>
       </c>
       <c r="J3">
-        <v>0.01458991783974577</v>
+        <v>0.01518042398701374</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>31.9841461804462</v>
+        <v>31.995262</v>
       </c>
       <c r="N3">
-        <v>31.9841461804462</v>
+        <v>95.985786</v>
       </c>
       <c r="O3">
-        <v>0.3950762861237717</v>
+        <v>0.3724642097459734</v>
       </c>
       <c r="P3">
-        <v>0.3950762861237717</v>
+        <v>0.3724642097459735</v>
       </c>
       <c r="Q3">
-        <v>40.06587144066208</v>
+        <v>42.36248410920066</v>
       </c>
       <c r="R3">
-        <v>40.06587144066208</v>
+        <v>381.262356982806</v>
       </c>
       <c r="S3">
-        <v>0.00576413055497772</v>
+        <v>0.005654164623931891</v>
       </c>
       <c r="T3">
-        <v>0.00576413055497772</v>
+        <v>0.005654164623931892</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.25267909965834</v>
+        <v>1.324023666666666</v>
       </c>
       <c r="H4">
-        <v>1.25267909965834</v>
+        <v>3.972071</v>
       </c>
       <c r="I4">
-        <v>0.01458991783974577</v>
+        <v>0.01518042398701374</v>
       </c>
       <c r="J4">
-        <v>0.01458991783974577</v>
+        <v>0.01518042398701374</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.4604161887433</v>
+        <v>34.28929533333334</v>
       </c>
       <c r="N4">
-        <v>30.4604161887433</v>
+        <v>102.867886</v>
       </c>
       <c r="O4">
-        <v>0.3762547867852832</v>
+        <v>0.3991695798295478</v>
       </c>
       <c r="P4">
-        <v>0.3762547867852832</v>
+        <v>0.3991695798295478</v>
       </c>
       <c r="Q4">
-        <v>38.15712672653328</v>
+        <v>45.39983853465622</v>
       </c>
       <c r="R4">
-        <v>38.15712672653328</v>
+        <v>408.598546811906</v>
       </c>
       <c r="S4">
-        <v>0.005489526426008345</v>
+        <v>0.006059563464530662</v>
       </c>
       <c r="T4">
-        <v>0.005489526426008345</v>
+        <v>0.006059563464530662</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.25267909965834</v>
+        <v>1.324023666666666</v>
       </c>
       <c r="H5">
-        <v>1.25267909965834</v>
+        <v>3.972071</v>
       </c>
       <c r="I5">
-        <v>0.01458991783974577</v>
+        <v>0.01518042398701374</v>
       </c>
       <c r="J5">
-        <v>0.01458991783974577</v>
+        <v>0.01518042398701374</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.8263062121378</v>
+        <v>16.62387466666667</v>
       </c>
       <c r="N5">
-        <v>15.8263062121378</v>
+        <v>49.871624</v>
       </c>
       <c r="O5">
-        <v>0.1954905485384369</v>
+        <v>0.1935223515480544</v>
       </c>
       <c r="P5">
-        <v>0.1954905485384369</v>
+        <v>0.1935223515480545</v>
       </c>
       <c r="Q5">
-        <v>19.82528301673797</v>
+        <v>22.01040349036711</v>
       </c>
       <c r="R5">
-        <v>19.82528301673797</v>
+        <v>198.093631413304</v>
       </c>
       <c r="S5">
-        <v>0.002852191041622626</v>
+        <v>0.002937751347463391</v>
       </c>
       <c r="T5">
-        <v>0.002852191041622626</v>
+        <v>0.002937751347463392</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>80.0823512563625</v>
+        <v>81.17653533333333</v>
       </c>
       <c r="H6">
-        <v>80.0823512563625</v>
+        <v>243.529606</v>
       </c>
       <c r="I6">
-        <v>0.9327168670433332</v>
+        <v>0.9307191821270077</v>
       </c>
       <c r="J6">
-        <v>0.9327168670433332</v>
+        <v>0.9307191821270075</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.68601823730102</v>
+        <v>2.993142333333334</v>
       </c>
       <c r="N6">
-        <v>2.68601823730102</v>
+        <v>8.979427000000001</v>
       </c>
       <c r="O6">
-        <v>0.03317837855250831</v>
+        <v>0.03484385887642424</v>
       </c>
       <c r="P6">
-        <v>0.03317837855250831</v>
+        <v>0.03484385887642424</v>
       </c>
       <c r="Q6">
-        <v>215.1026559605359</v>
+        <v>242.9729243795291</v>
       </c>
       <c r="R6">
-        <v>215.1026559605359</v>
+        <v>2186.756319415762</v>
       </c>
       <c r="S6">
-        <v>0.03094603329707327</v>
+        <v>0.03242984783561444</v>
       </c>
       <c r="T6">
-        <v>0.03094603329707327</v>
+        <v>0.03242984783561444</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>80.0823512563625</v>
+        <v>81.17653533333333</v>
       </c>
       <c r="H7">
-        <v>80.0823512563625</v>
+        <v>243.529606</v>
       </c>
       <c r="I7">
-        <v>0.9327168670433332</v>
+        <v>0.9307191821270077</v>
       </c>
       <c r="J7">
-        <v>0.9327168670433332</v>
+        <v>0.9307191821270075</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>31.9841461804462</v>
+        <v>31.995262</v>
       </c>
       <c r="N7">
-        <v>31.9841461804462</v>
+        <v>95.985786</v>
       </c>
       <c r="O7">
-        <v>0.3950762861237717</v>
+        <v>0.3724642097459734</v>
       </c>
       <c r="P7">
-        <v>0.3950762861237717</v>
+        <v>0.3724642097459735</v>
       </c>
       <c r="Q7">
-        <v>2561.365629057338</v>
+        <v>2597.264516242257</v>
       </c>
       <c r="R7">
-        <v>2561.365629057338</v>
+        <v>23375.38064618032</v>
       </c>
       <c r="S7">
-        <v>0.3684943158364798</v>
+        <v>0.3466595846663547</v>
       </c>
       <c r="T7">
-        <v>0.3684943158364798</v>
+        <v>0.3466595846663547</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>80.0823512563625</v>
+        <v>81.17653533333333</v>
       </c>
       <c r="H8">
-        <v>80.0823512563625</v>
+        <v>243.529606</v>
       </c>
       <c r="I8">
-        <v>0.9327168670433332</v>
+        <v>0.9307191821270077</v>
       </c>
       <c r="J8">
-        <v>0.9327168670433332</v>
+        <v>0.9307191821270075</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>30.4604161887433</v>
+        <v>34.28929533333334</v>
       </c>
       <c r="N8">
-        <v>30.4604161887433</v>
+        <v>102.867886</v>
       </c>
       <c r="O8">
-        <v>0.3762547867852832</v>
+        <v>0.3991695798295478</v>
       </c>
       <c r="P8">
-        <v>0.3762547867852832</v>
+        <v>0.3991695798295478</v>
       </c>
       <c r="Q8">
-        <v>2439.341748641932</v>
+        <v>2783.486194181435</v>
       </c>
       <c r="R8">
-        <v>2439.341748641932</v>
+        <v>25051.37574763292</v>
       </c>
       <c r="S8">
-        <v>0.3509391859404267</v>
+        <v>0.371514784868938</v>
       </c>
       <c r="T8">
-        <v>0.3509391859404267</v>
+        <v>0.371514784868938</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>80.0823512563625</v>
+        <v>81.17653533333333</v>
       </c>
       <c r="H9">
-        <v>80.0823512563625</v>
+        <v>243.529606</v>
       </c>
       <c r="I9">
-        <v>0.9327168670433332</v>
+        <v>0.9307191821270077</v>
       </c>
       <c r="J9">
-        <v>0.9327168670433332</v>
+        <v>0.9307191821270075</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>15.8263062121378</v>
+        <v>16.62387466666667</v>
       </c>
       <c r="N9">
-        <v>15.8263062121378</v>
+        <v>49.871624</v>
       </c>
       <c r="O9">
-        <v>0.1954905485384369</v>
+        <v>0.1935223515480544</v>
       </c>
       <c r="P9">
-        <v>0.1954905485384369</v>
+        <v>0.1935223515480545</v>
       </c>
       <c r="Q9">
-        <v>1267.407813171171</v>
+        <v>1349.468549255572</v>
       </c>
       <c r="R9">
-        <v>1267.407813171171</v>
+        <v>12145.21694330014</v>
       </c>
       <c r="S9">
-        <v>0.1823373319693535</v>
+        <v>0.1801149647561005</v>
       </c>
       <c r="T9">
-        <v>0.1823373319693535</v>
+        <v>0.1801149647561005</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.12026610726167</v>
+        <v>1.192675</v>
       </c>
       <c r="H10">
-        <v>1.12026610726167</v>
+        <v>3.578025</v>
       </c>
       <c r="I10">
-        <v>0.01304770748394977</v>
+        <v>0.0136744626508778</v>
       </c>
       <c r="J10">
-        <v>0.01304770748394977</v>
+        <v>0.0136744626508778</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.68601823730102</v>
+        <v>2.993142333333334</v>
       </c>
       <c r="N10">
-        <v>2.68601823730102</v>
+        <v>8.979427000000001</v>
       </c>
       <c r="O10">
-        <v>0.03317837855250831</v>
+        <v>0.03484385887642424</v>
       </c>
       <c r="P10">
-        <v>0.03317837855250831</v>
+        <v>0.03484385887642424</v>
       </c>
       <c r="Q10">
-        <v>3.009055194735066</v>
+        <v>3.569846032408334</v>
       </c>
       <c r="R10">
-        <v>3.009055194735066</v>
+        <v>32.12861429167501</v>
       </c>
       <c r="S10">
-        <v>0.0004329017781448813</v>
+        <v>0.0004764710468181202</v>
       </c>
       <c r="T10">
-        <v>0.0004329017781448813</v>
+        <v>0.0004764710468181203</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.12026610726167</v>
+        <v>1.192675</v>
       </c>
       <c r="H11">
-        <v>1.12026610726167</v>
+        <v>3.578025</v>
       </c>
       <c r="I11">
-        <v>0.01304770748394977</v>
+        <v>0.0136744626508778</v>
       </c>
       <c r="J11">
-        <v>0.01304770748394977</v>
+        <v>0.0136744626508778</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>31.9841461804462</v>
+        <v>31.995262</v>
       </c>
       <c r="N11">
-        <v>31.9841461804462</v>
+        <v>95.985786</v>
       </c>
       <c r="O11">
-        <v>0.3950762861237717</v>
+        <v>0.3724642097459734</v>
       </c>
       <c r="P11">
-        <v>0.3950762861237717</v>
+        <v>0.3724642097459735</v>
       </c>
       <c r="Q11">
-        <v>35.83075493565667</v>
+        <v>38.15994910585</v>
       </c>
       <c r="R11">
-        <v>35.83075493565667</v>
+        <v>343.43954195265</v>
       </c>
       <c r="S11">
-        <v>0.005154839815188218</v>
+        <v>0.00509324792496003</v>
       </c>
       <c r="T11">
-        <v>0.005154839815188218</v>
+        <v>0.00509324792496003</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.12026610726167</v>
+        <v>1.192675</v>
       </c>
       <c r="H12">
-        <v>1.12026610726167</v>
+        <v>3.578025</v>
       </c>
       <c r="I12">
-        <v>0.01304770748394977</v>
+        <v>0.0136744626508778</v>
       </c>
       <c r="J12">
-        <v>0.01304770748394977</v>
+        <v>0.0136744626508778</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.4604161887433</v>
+        <v>34.28929533333334</v>
       </c>
       <c r="N12">
-        <v>30.4604161887433</v>
+        <v>102.867886</v>
       </c>
       <c r="O12">
-        <v>0.3762547867852832</v>
+        <v>0.3991695798295478</v>
       </c>
       <c r="P12">
-        <v>0.3762547867852832</v>
+        <v>0.3991695798295478</v>
       </c>
       <c r="Q12">
-        <v>34.12377186933381</v>
+        <v>40.89598531168334</v>
       </c>
       <c r="R12">
-        <v>34.12377186933381</v>
+        <v>368.06386780515</v>
       </c>
       <c r="S12">
-        <v>0.004909262397410266</v>
+        <v>0.005458429510745736</v>
       </c>
       <c r="T12">
-        <v>0.004909262397410266</v>
+        <v>0.005458429510745736</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.12026610726167</v>
+        <v>1.192675</v>
       </c>
       <c r="H13">
-        <v>1.12026610726167</v>
+        <v>3.578025</v>
       </c>
       <c r="I13">
-        <v>0.01304770748394977</v>
+        <v>0.0136744626508778</v>
       </c>
       <c r="J13">
-        <v>0.01304770748394977</v>
+        <v>0.0136744626508778</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>15.8263062121378</v>
+        <v>16.62387466666667</v>
       </c>
       <c r="N13">
-        <v>15.8263062121378</v>
+        <v>49.871624</v>
       </c>
       <c r="O13">
-        <v>0.1954905485384369</v>
+        <v>0.1935223515480544</v>
       </c>
       <c r="P13">
-        <v>0.1954905485384369</v>
+        <v>0.1935223515480545</v>
       </c>
       <c r="Q13">
-        <v>17.7296744526028</v>
+        <v>19.82687971806667</v>
       </c>
       <c r="R13">
-        <v>17.7296744526028</v>
+        <v>178.4419174626</v>
       </c>
       <c r="S13">
-        <v>0.002550703493206409</v>
+        <v>0.002646314168353915</v>
       </c>
       <c r="T13">
-        <v>0.002550703493206409</v>
+        <v>0.002646314168353915</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.40393272619235</v>
+        <v>3.525915333333334</v>
       </c>
       <c r="H14">
-        <v>3.40393272619235</v>
+        <v>10.577746</v>
       </c>
       <c r="I14">
-        <v>0.03964550763297121</v>
+        <v>0.04042593123510095</v>
       </c>
       <c r="J14">
-        <v>0.03964550763297121</v>
+        <v>0.04042593123510094</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.68601823730102</v>
+        <v>2.993142333333334</v>
       </c>
       <c r="N14">
-        <v>2.68601823730102</v>
+        <v>8.979427000000001</v>
       </c>
       <c r="O14">
-        <v>0.03317837855250831</v>
+        <v>0.03484385887642424</v>
       </c>
       <c r="P14">
-        <v>0.03317837855250831</v>
+        <v>0.03484385887642424</v>
       </c>
       <c r="Q14">
-        <v>9.143025381098431</v>
+        <v>10.55356644794911</v>
       </c>
       <c r="R14">
-        <v>9.143025381098431</v>
+        <v>94.98209803154202</v>
       </c>
       <c r="S14">
-        <v>0.001315373660153076</v>
+        <v>0.001408595442903888</v>
       </c>
       <c r="T14">
-        <v>0.001315373660153076</v>
+        <v>0.001408595442903888</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.40393272619235</v>
+        <v>3.525915333333334</v>
       </c>
       <c r="H15">
-        <v>3.40393272619235</v>
+        <v>10.577746</v>
       </c>
       <c r="I15">
-        <v>0.03964550763297121</v>
+        <v>0.04042593123510095</v>
       </c>
       <c r="J15">
-        <v>0.03964550763297121</v>
+        <v>0.04042593123510094</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>31.9841461804462</v>
+        <v>31.995262</v>
       </c>
       <c r="N15">
-        <v>31.9841461804462</v>
+        <v>95.985786</v>
       </c>
       <c r="O15">
-        <v>0.3950762861237717</v>
+        <v>0.3724642097459734</v>
       </c>
       <c r="P15">
-        <v>0.3950762861237717</v>
+        <v>0.3724642097459735</v>
       </c>
       <c r="Q15">
-        <v>108.8718819029409</v>
+        <v>112.8125848798174</v>
       </c>
       <c r="R15">
-        <v>108.8718819029409</v>
+        <v>1015.313263918356</v>
       </c>
       <c r="S15">
-        <v>0.01566299991712591</v>
+        <v>0.01505721253072694</v>
       </c>
       <c r="T15">
-        <v>0.01566299991712591</v>
+        <v>0.01505721253072694</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.40393272619235</v>
+        <v>3.525915333333334</v>
       </c>
       <c r="H16">
-        <v>3.40393272619235</v>
+        <v>10.577746</v>
       </c>
       <c r="I16">
-        <v>0.03964550763297121</v>
+        <v>0.04042593123510095</v>
       </c>
       <c r="J16">
-        <v>0.03964550763297121</v>
+        <v>0.04042593123510094</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>30.4604161887433</v>
+        <v>34.28929533333334</v>
       </c>
       <c r="N16">
-        <v>30.4604161887433</v>
+        <v>102.867886</v>
       </c>
       <c r="O16">
-        <v>0.3762547867852832</v>
+        <v>0.3991695798295478</v>
       </c>
       <c r="P16">
-        <v>0.3762547867852832</v>
+        <v>0.3991695798295478</v>
       </c>
       <c r="Q16">
-        <v>103.6852075183026</v>
+        <v>120.9011521849951</v>
       </c>
       <c r="R16">
-        <v>103.6852075183026</v>
+        <v>1088.110369664956</v>
       </c>
       <c r="S16">
-        <v>0.0149168120214379</v>
+        <v>0.01613680198533344</v>
       </c>
       <c r="T16">
-        <v>0.0149168120214379</v>
+        <v>0.01613680198533344</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.40393272619235</v>
+        <v>3.525915333333334</v>
       </c>
       <c r="H17">
-        <v>3.40393272619235</v>
+        <v>10.577746</v>
       </c>
       <c r="I17">
-        <v>0.03964550763297121</v>
+        <v>0.04042593123510095</v>
       </c>
       <c r="J17">
-        <v>0.03964550763297121</v>
+        <v>0.04042593123510094</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>15.8263062121378</v>
+        <v>16.62387466666667</v>
       </c>
       <c r="N17">
-        <v>15.8263062121378</v>
+        <v>49.871624</v>
       </c>
       <c r="O17">
-        <v>0.1954905485384369</v>
+        <v>0.1935223515480544</v>
       </c>
       <c r="P17">
-        <v>0.1954905485384369</v>
+        <v>0.1935223515480545</v>
       </c>
       <c r="Q17">
-        <v>53.87168165023714</v>
+        <v>58.61437458661156</v>
       </c>
       <c r="R17">
-        <v>53.87168165023714</v>
+        <v>527.5293712795041</v>
       </c>
       <c r="S17">
-        <v>0.007750322034254328</v>
+        <v>0.007823321276136681</v>
       </c>
       <c r="T17">
-        <v>0.007750322034254328</v>
+        <v>0.007823321276136681</v>
       </c>
     </row>
   </sheetData>
